--- a/results/Quast_processing/N90_combined.xlsx
+++ b/results/Quast_processing/N90_combined.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Largest contig</t>
+          <t>N90</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10905</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7242</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7875</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18699</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16014</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7946</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109457</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19677</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5021</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77729</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241013</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80507</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25755</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>274575</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>421278</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96246</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98145</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218020</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79732</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114705</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12495</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>387974</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159678</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52489</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99024</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152804</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13352</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41024</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77949</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19254</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>121427</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121196</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421288</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24602</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21981</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88575</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>59388</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>421278</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8691</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101607</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4061</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2681</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5228</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3244</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32623</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50995</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>28801</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3049</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2616</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>84275</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>79642</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8624</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>294054</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>109795</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>61472</v>
+        <v>11014</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6565</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>51927</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>48728</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8313</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8965</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32259</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>83122</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>38192</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9159</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>301491</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26245</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>252570</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>195318</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>408615</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>142113</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>79160</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>71283</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4729</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>175539</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>44716</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10020</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>143113</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>454029</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100045</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>128020</v>
+        <v>3651</v>
       </c>
     </row>
   </sheetData>
